--- a/HCI110_Software_Quality/Project3_Halstead_Metrics/Project_3.xlsx
+++ b/HCI110_Software_Quality/Project3_Halstead_Metrics/Project_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myresources.deloitte.com/personal/evagianou_deloitte_gr/Documents/Documents/Personal/HCI/SQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1058" documentId="8_{1A844FE9-6BFD-47EF-BCBF-8FEBBE93A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58A0203-AF83-4FF0-9EE4-6A135ADD7F00}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="8_{1A844FE9-6BFD-47EF-BCBF-8FEBBE93A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55D4D77-AF0D-4B4C-A606-5E62B389503D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69EE144A-46DF-4976-845A-F198714C9FC5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{69EE144A-46DF-4976-845A-F198714C9FC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="189">
   <si>
     <t>#</t>
   </si>
@@ -549,12 +549,6 @@
     <t>while ( )</t>
   </si>
   <si>
-    <t>[ ]</t>
-  </si>
-  <si>
-    <t>digits</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -787,12 +781,15 @@
   <si>
     <t>        if len(set(user_input)) == 1:</t>
   </si>
+  <si>
+    <t>digits[ ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,12 +880,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -934,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -984,16 +975,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1002,52 +987,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="68">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1058,139 +1006,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1687,6 +1502,120 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1707,6 +1636,46 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1945,6 +1914,25 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -2272,7 +2260,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75CBCCF3-E5C4-487C-BA13-3543BEA412D0}" name="Table4" displayName="Table4" ref="D2:G3" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75CBCCF3-E5C4-487C-BA13-3543BEA412D0}" name="Table4" displayName="Table4" ref="D2:G3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="D2:G3" xr:uid="{75CBCCF3-E5C4-487C-BA13-3543BEA412D0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2280,16 +2268,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{378F0CE5-1BD6-45AF-8058-E92D1D9842E6}" name="n1" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{378F0CE5-1BD6-45AF-8058-E92D1D9842E6}" name="n1" dataDxfId="17">
       <calculatedColumnFormula array="1">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER(D6:D300, D6:D300&lt;&gt;"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{748E0454-0349-4D06-846C-B72EF0E0C172}" name="N1 " dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{748E0454-0349-4D06-846C-B72EF0E0C172}" name="N1 " dataDxfId="16">
       <calculatedColumnFormula>SUM(E6:E300)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A4F5F8D2-E6EC-411D-881D-CC948D369C41}" name="n2" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{A4F5F8D2-E6EC-411D-881D-CC948D369C41}" name="n2" dataDxfId="15">
       <calculatedColumnFormula array="1">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER(F6:F300, F6:F300&lt;&gt;"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1BF7ED76-0650-4B83-B139-96C01CAF7406}" name="N2 " dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{1BF7ED76-0650-4B83-B139-96C01CAF7406}" name="N2 " dataDxfId="14">
       <calculatedColumnFormula>SUM(G6:G300)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2298,7 +2286,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{89389857-7796-4FF2-8757-868B431DFD94}" name="Table5" displayName="Table5" ref="D5:G44" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{89389857-7796-4FF2-8757-868B431DFD94}" name="Table5" displayName="Table5" ref="D5:G44" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="D5:G44" xr:uid="{89389857-7796-4FF2-8757-868B431DFD94}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2306,24 +2294,24 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{EE64F77F-6EB8-4559-9786-D03B9040470E}" name="operators" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{99849EFF-05F3-4238-9B42-D5FBEDDE07F8}" name="# " dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{AD1A06C9-3255-4A69-866A-58D60665E48C}" name="operands" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{B70FB532-A0D8-4873-B25E-578FBFA5107D}" name="#" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EE64F77F-6EB8-4559-9786-D03B9040470E}" name="operators" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{99849EFF-05F3-4238-9B42-D5FBEDDE07F8}" name="# " dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{AD1A06C9-3255-4A69-866A-58D60665E48C}" name="operands" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B70FB532-A0D8-4873-B25E-578FBFA5107D}" name="#" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{62EA654F-CFFC-45D9-82C8-09DB521F5E47}" name="Table6" displayName="Table6" ref="A2:B62" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{62EA654F-CFFC-45D9-82C8-09DB521F5E47}" name="Table6" displayName="Table6" ref="A2:B62" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:B62" xr:uid="{62EA654F-CFFC-45D9-82C8-09DB521F5E47}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8525D6C-3416-41F5-83E1-435C4823E767}" name="code" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{FD141AEE-BFE0-4F80-8F42-30C3F60E4A05}" name="comment" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{C8525D6C-3416-41F5-83E1-435C4823E767}" name="code" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FD141AEE-BFE0-4F80-8F42-30C3F60E4A05}" name="comment" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2333,10 +2321,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D8CDEB9E-F35E-4E7A-A58A-1CF0203CB9D4}" name="Table13" displayName="Table13" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{D8CDEB9E-F35E-4E7A-A58A-1CF0203CB9D4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0879C422-A314-49B3-A328-B07988ED9AAC}" name="metrics" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{963F93CD-45E2-48DD-B4AC-A545EC997570}" name="Python" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{64FC6577-01F8-4D52-8549-2CD968EFC8AF}" name="ANSI C" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{552E8A38-28A0-4328-93F4-3E040EC9A587}" name="Larger" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{0879C422-A314-49B3-A328-B07988ED9AAC}" name="metrics" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{963F93CD-45E2-48DD-B4AC-A545EC997570}" name="Python" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{64FC6577-01F8-4D52-8549-2CD968EFC8AF}" name="ANSI C" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{552E8A38-28A0-4328-93F4-3E040EC9A587}" name="Larger" dataDxfId="0">
       <calculatedColumnFormula>IF(B2&gt;C2,$B$1,$C$1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{8C5F8E8A-BC61-4A80-9985-EE3977389D17}" name="Description"/>
@@ -2385,14 +2373,14 @@
     <tableColumn id="3" xr3:uid="{49B8CB6F-8677-4A86-8BD3-56736FFCAD76}" name="B" dataDxfId="53">
       <calculatedColumnFormula>POWER(I9,2/3)/L9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{17585A34-2069-4359-B2A2-65975AC505A5}" name="E0" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{17585A34-2069-4359-B2A2-65975AC505A5}" name="E0" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{941D04D9-AD93-4380-9474-B63129D83B76}" name="Table411" displayName="Table411" ref="D2:G3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{941D04D9-AD93-4380-9474-B63129D83B76}" name="Table411" displayName="Table411" ref="D2:G3" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="D2:G3" xr:uid="{75CBCCF3-E5C4-487C-BA13-3543BEA412D0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2400,16 +2388,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{10B42FDD-A740-471D-90B7-DFDC9A7C2615}" name="n1" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{10B42FDD-A740-471D-90B7-DFDC9A7C2615}" name="n1" dataDxfId="49">
       <calculatedColumnFormula>COUNTA(D6:D300)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{426BF2E8-36EA-4C08-BDF5-905000EF374A}" name="N1 " dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{426BF2E8-36EA-4C08-BDF5-905000EF374A}" name="N1 " dataDxfId="48">
       <calculatedColumnFormula>SUM(E6:E300)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0DAAE2B2-8826-4C52-86FA-30A762C18973}" name="n2" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{0DAAE2B2-8826-4C52-86FA-30A762C18973}" name="n2" dataDxfId="47">
       <calculatedColumnFormula>COUNTA(F6:F300)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9BE0EBE-4604-4CFA-988F-5D9C4B165863}" name="N2 " dataDxfId="47">
+    <tableColumn id="6" xr3:uid="{C9BE0EBE-4604-4CFA-988F-5D9C4B165863}" name="N2 " dataDxfId="46">
       <calculatedColumnFormula>SUM(G6:G300)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2418,7 +2406,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{35B71955-62CE-43E6-8D41-091515901291}" name="Table512" displayName="Table512" ref="D5:G28" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{35B71955-62CE-43E6-8D41-091515901291}" name="Table512" displayName="Table512" ref="D5:G28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="D5:G28" xr:uid="{89389857-7796-4FF2-8757-868B431DFD94}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2426,44 +2414,44 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{0D23D791-C4E0-4CE2-A7C2-C662EDE89E35}" name="operators" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{BAE12B3D-E986-4A1D-A4CD-AA58946F2BA5}" name="# " dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{D919D918-F939-45BD-876A-6145645F37D8}" name="operands" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{52982375-0F54-45FF-8913-2ECC49CDE0AA}" name="#" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{0D23D791-C4E0-4CE2-A7C2-C662EDE89E35}" name="operators" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{BAE12B3D-E986-4A1D-A4CD-AA58946F2BA5}" name="# " dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{D919D918-F939-45BD-876A-6145645F37D8}" name="operands" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{52982375-0F54-45FF-8913-2ECC49CDE0AA}" name="#" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C5F328B5-13CE-4C6D-B85D-722B052AC044}" name="Table613" displayName="Table613" ref="A2:B37" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C5F328B5-13CE-4C6D-B85D-722B052AC044}" name="Table613" displayName="Table613" ref="A2:B37" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A2:B37" xr:uid="{62EA654F-CFFC-45D9-82C8-09DB521F5E47}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5A273451-6A26-4DC7-8F71-BDA22DACEAC0}" name="code" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8E421ACF-9A4F-483D-81D7-BD29F8C077EC}" name="comment" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5A273451-6A26-4DC7-8F71-BDA22DACEAC0}" name="code" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{8E421ACF-9A4F-483D-81D7-BD29F8C077EC}" name="comment" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E47947EC-2395-42D5-B111-008805799900}" name="Table1" displayName="Table1" ref="I2:K3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E47947EC-2395-42D5-B111-008805799900}" name="Table1" displayName="Table1" ref="I2:K3" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="I2:K3" xr:uid="{E47947EC-2395-42D5-B111-008805799900}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{11FD69EC-E537-4085-8283-F0F869E13B10}" name="n" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{11FD69EC-E537-4085-8283-F0F869E13B10}" name="n" dataDxfId="33">
       <calculatedColumnFormula>D3+F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9BF74CEF-6BF3-451A-9C90-CA19C5A275FB}" name="N " dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{9BF74CEF-6BF3-451A-9C90-CA19C5A275FB}" name="N " dataDxfId="32">
       <calculatedColumnFormula>E3+G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FF57BC98-68EC-4FC4-9EC0-FB92050CB360}" name="Nest" dataDxfId="34">
+    <tableColumn id="3" xr3:uid="{FF57BC98-68EC-4FC4-9EC0-FB92050CB360}" name="Nest" dataDxfId="31">
       <calculatedColumnFormula>D3*LOG(D3,2)+F3*LOG(F3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2472,20 +2460,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10B85870-F466-4DE0-83C8-E721326022A1}" name="Table2" displayName="Table2" ref="I5:K6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10B85870-F466-4DE0-83C8-E721326022A1}" name="Table2" displayName="Table2" ref="I5:K6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="I5:K6" xr:uid="{10B85870-F466-4DE0-83C8-E721326022A1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F4CFAC0C-5A84-4379-A632-E4A9221A109D}" name="V" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{F4CFAC0C-5A84-4379-A632-E4A9221A109D}" name="V" dataDxfId="28">
       <calculatedColumnFormula>J3*LOG(I3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{512AF869-ED5A-4CC1-A821-8F27E1222C90}" name="Lest" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{512AF869-ED5A-4CC1-A821-8F27E1222C90}" name="Lest" dataDxfId="27">
       <calculatedColumnFormula>2*F3/(D3*G3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0704448A-5F8A-40E9-8BB2-2034B4957C7F}" name="D" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{0704448A-5F8A-40E9-8BB2-2034B4957C7F}" name="D" dataDxfId="26">
       <calculatedColumnFormula>1/J6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2494,7 +2482,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF86ACD7-2397-4DA3-BBC4-D336DAAD6126}" name="Table3" displayName="Table3" ref="I8:L9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF86ACD7-2397-4DA3-BBC4-D336DAAD6126}" name="Table3" displayName="Table3" ref="I8:L9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="I8:L9" xr:uid="{CF86ACD7-2397-4DA3-BBC4-D336DAAD6126}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2502,16 +2490,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77B8B0E8-AC41-4BE2-833C-40E500762C3B}" name="E" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{77B8B0E8-AC41-4BE2-833C-40E500762C3B}" name="E" dataDxfId="23">
       <calculatedColumnFormula>K6*I6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6420D21C-EB8C-417D-9477-45C7B7B4C6F9}" name="T" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{6420D21C-EB8C-417D-9477-45C7B7B4C6F9}" name="T" dataDxfId="22">
       <calculatedColumnFormula>I9/18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{18CCCA3C-CE2A-452B-B3AA-83FB74F2583D}" name="B" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{18CCCA3C-CE2A-452B-B3AA-83FB74F2583D}" name="B" dataDxfId="21">
       <calculatedColumnFormula>POWER(I9,2/3)/L9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{062FD5ED-7854-49DC-ABEB-94BB91247EFD}" name="E0" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{062FD5ED-7854-49DC-ABEB-94BB91247EFD}" name="E0" dataDxfId="20">
       <calculatedColumnFormula>Table310[[#This Row],[E0]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2931,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4CEAB8-EDD6-40FB-A803-56659C388EF2}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A13" zoomScale="121" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2949,20 +2937,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2998,7 +2986,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3">
@@ -3049,8 +3037,8 @@
       <c r="E5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>163</v>
+      <c r="F5" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>0</v>
@@ -3141,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3174,16 +3162,16 @@
         <f>POWER(I9,2/3)/L9</f>
         <v>0.12317070430417841</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <v>3100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7" t="s">
@@ -3201,7 +3189,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3341,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -3398,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -3472,14 +3460,14 @@
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="5"/>
@@ -3491,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -3536,10 +3524,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -3549,7 +3537,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3614,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A23569-4431-40ED-B417-6325F552A535}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3632,20 +3620,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -3692,23 +3680,23 @@
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER(F6:F300, F6:F300&lt;&gt;"")))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3">
         <f>SUM(G6:G300)</f>
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="I3" s="3">
         <f>D3+F3</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="3">
         <f>E3+G3</f>
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="K3" s="3">
         <f>D3*LOG(D3,2)+F3*LOG(F3,2)</f>
-        <v>263.30312261262367</v>
+        <v>257.24581788556333</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -3729,7 +3717,7 @@
         <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>0</v>
@@ -3764,15 +3752,15 @@
       </c>
       <c r="I6" s="3">
         <f>J3*LOG(I3,2)</f>
-        <v>1352.8381729647704</v>
+        <v>1237.300812965146</v>
       </c>
       <c r="J6" s="3">
         <f>2*F3/(D3*G3)</f>
-        <v>1.6339869281045753E-2</v>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="K6" s="3">
         <f>1/J6</f>
-        <v>61.199999999999996</v>
+        <v>51.874999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -3782,7 +3770,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -3820,7 +3808,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3843,15 +3831,15 @@
       </c>
       <c r="I9" s="3">
         <f>K6*I6</f>
-        <v>82793.696185443943</v>
+        <v>64184.979672566937</v>
       </c>
       <c r="J9" s="3">
         <f>I9/18</f>
-        <v>4599.649788080219</v>
+        <v>3565.8322040314965</v>
       </c>
       <c r="K9" s="3">
         <f>POWER(I9,2/3)/L9</f>
-        <v>0.61277798435963027</v>
+        <v>0.51712306816570885</v>
       </c>
       <c r="L9" s="3">
         <f>Table310[[#This Row],[E0]]</f>
@@ -3871,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10" s="15">
         <v>1</v>
@@ -3910,11 +3898,11 @@
       <c r="E12" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>120</v>
+      <c r="F12" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="G12" s="15">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -3927,11 +3915,11 @@
       <c r="E13" s="15">
         <v>4</v>
       </c>
-      <c r="F13" s="7">
-        <v>4</v>
+      <c r="F13" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="G13" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -3946,11 +3934,11 @@
       <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>121</v>
+      <c r="F14" s="7">
+        <v>1</v>
       </c>
       <c r="G14" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -3958,7 +3946,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7" t="s">
@@ -3968,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -3987,10 +3975,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="15">
         <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -4004,10 +3992,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="7">
-        <v>3</v>
-      </c>
-      <c r="G17" s="16">
         <v>4</v>
+      </c>
+      <c r="G17" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -4054,11 +4042,11 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="2">
-        <v>19</v>
+      <c r="D20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="15">
+        <v>3</v>
       </c>
       <c r="F20" s="7">
         <v>10</v>
@@ -4073,17 +4061,17 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="9" t="s">
-        <v>122</v>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E21" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -4093,16 +4081,16 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2">
+        <v>121</v>
+      </c>
+      <c r="E22" s="15">
         <v>2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="G22" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -4110,13 +4098,13 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="15">
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G23" s="15">
         <v>3</v>
@@ -4128,17 +4116,17 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="7" t="s">
-        <v>124</v>
+      <c r="D24" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E24" s="15">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="G24" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -4151,10 +4139,10 @@
         <v>125</v>
       </c>
       <c r="E25" s="15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="15">
         <v>1</v>
@@ -4166,18 +4154,14 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="16">
-        <v>7</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
+      <c r="D26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
@@ -4186,10 +4170,10 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E27" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="2"/>
@@ -4201,10 +4185,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="E28" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
@@ -4216,10 +4200,10 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="E29" s="15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
@@ -4230,10 +4214,10 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
@@ -4272,13 +4256,13 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E33" s="15">
         <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G33" s="15">
         <v>1</v>
@@ -4297,7 +4281,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G34" s="15">
         <v>1</v>
@@ -4327,7 +4311,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="D36" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
@@ -4341,17 +4325,17 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B37" s="5"/>
       <c r="D37" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E37" s="15">
         <v>1</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G37" s="15">
         <v>1</v>
@@ -4359,11 +4343,11 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="5"/>
       <c r="D38" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E38" s="15">
         <v>1</v>
@@ -4389,11 +4373,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" s="5"/>
       <c r="D40" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E40" s="15">
         <v>1</v>
@@ -4403,11 +4387,11 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="5"/>
       <c r="D41" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E41" s="15">
         <v>1</v>
@@ -4419,7 +4403,7 @@
       <c r="A42" s="13"/>
       <c r="B42" s="5"/>
       <c r="D42" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E42" s="15">
         <v>1</v>
@@ -4429,11 +4413,11 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B43" s="5"/>
       <c r="D43" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E43" s="15">
         <v>1</v>
@@ -4465,13 +4449,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" s="5"/>
     </row>
@@ -4481,13 +4465,13 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="5"/>
     </row>
@@ -4497,13 +4481,13 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B53" s="5"/>
     </row>
@@ -4513,25 +4497,25 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B58" s="5"/>
     </row>
@@ -4547,13 +4531,13 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" s="5"/>
     </row>
@@ -4584,283 +4568,283 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.9140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.9140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.9140625" style="21" customWidth="1"/>
     <col min="5" max="5" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>165</v>
+      <c r="D1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="23" cm="1">
+      <c r="B2" s="21" cm="1">
         <f t="array" ref="B2">Table411[n1]</f>
         <v>22</v>
       </c>
-      <c r="C2" s="23" cm="1">
+      <c r="C2" s="21" cm="1">
         <f t="array" ref="C2">Table4[n1]</f>
         <v>30</v>
       </c>
-      <c r="D2" s="23" t="str">
+      <c r="D2" s="21" t="str">
         <f>IF(B2&gt;C2,$B$1,$C$1)</f>
         <v>ANSI C</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <f>Table411[[#This Row],[N1 ]]</f>
         <v>40</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <f>Table4[[#This Row],[N1 ]]</f>
         <v>132</v>
       </c>
-      <c r="D3" s="23" t="str">
+      <c r="D3" s="21" t="str">
         <f t="shared" ref="D3:D14" si="0">IF(B3&gt;C3,$B$1,$C$1)</f>
         <v>ANSI C</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="23" cm="1">
+      <c r="B4" s="21" cm="1">
         <f t="array" ref="B4">Table411[n2]</f>
         <v>21</v>
       </c>
-      <c r="C4" s="23" cm="1">
+      <c r="C4" s="21" cm="1">
         <f t="array" ref="C4">Table4[n2]</f>
-        <v>25</v>
-      </c>
-      <c r="D4" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="D4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="23" cm="1">
+      <c r="B5" s="21" cm="1">
         <f t="array" ref="B5">Table411[[N2 ]]</f>
         <v>35</v>
       </c>
-      <c r="C5" s="23" cm="1">
+      <c r="C5" s="21" cm="1">
         <f t="array" ref="C5">Table4[[N2 ]]</f>
-        <v>102</v>
-      </c>
-      <c r="D5" s="23" t="str">
+        <v>83</v>
+      </c>
+      <c r="D5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" cm="1">
+      <c r="B6" s="21" cm="1">
         <f t="array" ref="B6">Table18[n]</f>
         <v>43</v>
       </c>
-      <c r="C6" s="23" cm="1">
+      <c r="C6" s="21" cm="1">
         <f t="array" ref="C6">Table1[n]</f>
-        <v>55</v>
-      </c>
-      <c r="D6" s="23" t="str">
+        <v>54</v>
+      </c>
+      <c r="D6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="23" cm="1">
+      <c r="B7" s="21" cm="1">
         <f t="array" ref="B7">Table18[[N ]]</f>
         <v>75</v>
       </c>
-      <c r="C7" s="23" cm="1">
+      <c r="C7" s="21" cm="1">
         <f t="array" ref="C7">Table1[[N ]]</f>
-        <v>234</v>
-      </c>
-      <c r="D7" s="23" t="str">
+        <v>215</v>
+      </c>
+      <c r="D7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="23" cm="1">
+      <c r="B8" s="21" cm="1">
         <f t="array" ref="B8">Table18[Nest]</f>
         <v>190.34616148837449</v>
       </c>
-      <c r="C8" s="23" cm="1">
+      <c r="C8" s="21" cm="1">
         <f t="array" ref="C8">Table1[Nest]</f>
-        <v>263.30312261262367</v>
-      </c>
-      <c r="D8" s="23" t="str">
+        <v>257.24581788556333</v>
+      </c>
+      <c r="D8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="23" cm="1">
+      <c r="B9" s="21" cm="1">
         <f t="array" ref="B9">Table29[V]</f>
         <v>406.96985660265733</v>
       </c>
-      <c r="C9" s="23" cm="1">
+      <c r="C9" s="21" cm="1">
         <f t="array" ref="C9">Table2[V]</f>
-        <v>1352.8381729647704</v>
-      </c>
-      <c r="D9" s="23" t="str">
+        <v>1237.300812965146</v>
+      </c>
+      <c r="D9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="23" cm="1">
+      <c r="B10" s="21" cm="1">
         <f t="array" ref="B10">Table29[Lest]</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="C10" s="23" cm="1">
+      <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">Table2[Lest]</f>
-        <v>1.6339869281045753E-2</v>
-      </c>
-      <c r="D10" s="23" t="str">
+        <v>1.9277108433734941E-2</v>
+      </c>
+      <c r="D10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Python</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23" cm="1">
+      <c r="B11" s="21" cm="1">
         <f t="array" ref="B11">Table29[D]</f>
         <v>18.333333333333336</v>
       </c>
-      <c r="C11" s="23" cm="1">
+      <c r="C11" s="21" cm="1">
         <f t="array" ref="C11">Table2[D]</f>
-        <v>61.199999999999996</v>
-      </c>
-      <c r="D11" s="23" t="str">
+        <v>51.874999999999993</v>
+      </c>
+      <c r="D11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" cm="1">
+      <c r="B12" s="21" cm="1">
         <f t="array" ref="B12">Table310[E]</f>
         <v>7461.1140377153852</v>
       </c>
-      <c r="C12" s="23" cm="1">
+      <c r="C12" s="21" cm="1">
         <f t="array" ref="C12">Table3[E]</f>
-        <v>82793.696185443943</v>
-      </c>
-      <c r="D12" s="23" t="str">
+        <v>64184.979672566937</v>
+      </c>
+      <c r="D12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="23" cm="1">
+      <c r="B13" s="21" cm="1">
         <f t="array" ref="B13">Table310[T]</f>
         <v>414.5063354286325</v>
       </c>
-      <c r="C13" s="23" cm="1">
+      <c r="C13" s="21" cm="1">
         <f t="array" ref="C13">Table3[T]</f>
-        <v>4599.649788080219</v>
-      </c>
-      <c r="D13" s="23" t="str">
+        <v>3565.8322040314965</v>
+      </c>
+      <c r="D13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="23" cm="1">
+      <c r="B14" s="21" cm="1">
         <f t="array" ref="B14">Table310[B]</f>
         <v>0.12317070430417841</v>
       </c>
-      <c r="C14" s="23" cm="1">
+      <c r="C14" s="21" cm="1">
         <f t="array" ref="C14">Table3[B]</f>
-        <v>0.61277798435963027</v>
-      </c>
-      <c r="D14" s="23" t="str">
+        <v>0.51712306816570885</v>
+      </c>
+      <c r="D14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ANSI C</v>
       </c>
@@ -4879,21 +4863,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Normal-2025","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB72106-566B-477B-A545-C67C959C7B45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C38829-C3AE-4202-9CB1-0356487E15CF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C38829-C3AE-4202-9CB1-0356487E15CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB72106-566B-477B-A545-C67C959C7B45}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
